--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail7 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>1.912161287921594e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7816739853100265</v>
+        <v>1.190737205428785e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.402420177372977</v>
+        <v>3.184234653114754e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.190737205428785e-06</v>
+        <v>-0.04945029441219417</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.184234653114754e-06</v>
+        <v>0.3286932400308709</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04945029441219417</v>
+        <v>0.1102395501078193</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3286932400308709</v>
+        <v>1.71619844043552</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1102395501078193</v>
+        <v>1.761894553805012</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.627933613458204</v>
+        <v>3.875563323440717</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.761894553805012</v>
+        <v>2.568534993290564e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.875563323440717</v>
+        <v>81062416.92389053</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.568534993290564e-15</v>
+        <v>1.415350710173589e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>81062416.92389053</v>
+        <v>16.87813994628015</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.415350710173589e-06</v>
+        <v>0.0001362838596183331</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>16.87813994628015</v>
+        <v>8.972436229290748</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001362838596183331</v>
+        <v>1.316862625104233</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.972436229290748</v>
+        <v>0.01097147922526651</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.316862625104233</v>
+        <v>2.936752813450296</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01097147922526651</v>
+        <v>0.9556862671335578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.936752813450296</v>
+        <v>1.768785287967091</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9556862671335578</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.768785287967091</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2062547657674156</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>1.722851610244891e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03857440523953343</v>
+        <v>8.695388513868038e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.08983536895404054</v>
+        <v>3.177893979297212e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.695388513868038e-07</v>
+        <v>-0.02045314366115418</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.177893979297212e-06</v>
+        <v>0.2789434606796736</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02045314366115418</v>
+        <v>0.07806147696616682</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2789434606796736</v>
+        <v>1.664808130836702</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07806147696616682</v>
+        <v>1.744404945772096</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.574695639512855</v>
+        <v>3.801251377391576</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.744404945772096</v>
+        <v>2.763339426318197e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.801251377391576</v>
+        <v>76963973.36952014</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.763339426318197e-15</v>
+        <v>1.460589877158272e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>76963973.36952014</v>
+        <v>16.36851175873489</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.460589877158272e-06</v>
+        <v>0.0001303383193843726</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>16.36851175873489</v>
+        <v>8.126251214111733</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001303383193843726</v>
+        <v>1.363211343936575</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.126251214111733</v>
+        <v>0.008607015888256742</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.363211343936575</v>
+        <v>2.95445238231805</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008607015888256742</v>
+        <v>0.9563583052469562</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.95445238231805</v>
+        <v>1.780395668372625</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9563583052469562</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.780395668372625</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.211862687895464</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>1.691842733232441e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.08489296847266349</v>
+        <v>6.898855284612746e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.3968081636343377</v>
+        <v>3.176715413590964e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.898855284612746e-07</v>
+        <v>0.005328681796992077</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.176715413590964e-06</v>
+        <v>0.2220486741919774</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.005328681796992077</v>
+        <v>0.04924266436258072</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2220486741919774</v>
+        <v>1.61694410967402</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04924266436258072</v>
+        <v>1.57331033044444</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.518391843061598</v>
+        <v>4.28668455395359</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.57331033044444</v>
+        <v>3.971580727925919e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.28668455395359</v>
+        <v>52727870.8531285</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.971580727925919e-15</v>
+        <v>2.095743360476931e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>52727870.8531285</v>
+        <v>11.04190139249219</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.095743360476931e-06</v>
+        <v>0.0001268789032609492</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>11.04190139249219</v>
+        <v>7.38880684645183</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001268789032609492</v>
+        <v>1.386730789660289</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.38880684645183</v>
+        <v>0.006926886048122832</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.386730789660289</v>
+        <v>2.987070174160964</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006926886048122832</v>
+        <v>0.9544764863988727</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.987070174160964</v>
+        <v>1.848232689769418</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9544764863988727</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.848232689769418</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2154358289943943</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>1.738960474274838e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.02901880230719845</v>
+        <v>7.070651254360555e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.2814925171551628</v>
+        <v>3.179284790778387e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.070651254360555e-07</v>
+        <v>0.02315639606905107</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.179284790778387e-06</v>
+        <v>0.1737359845099405</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02315639606905107</v>
+        <v>0.0306757478848666</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1737359845099405</v>
+        <v>1.599470482836323</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0306757478848666</v>
+        <v>1.56504803531467</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.499528573974536</v>
+        <v>3.778575830500679</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.56504803531467</v>
+        <v>5.111521150666918e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.778575830500679</v>
+        <v>41054975.01793745</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.111521150666918e-15</v>
+        <v>2.670814605564881e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>41054975.01793745</v>
+        <v>8.6155249918687</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.670814605564881e-06</v>
+        <v>0.0001364714005131457</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.6155249918687</v>
+        <v>8.221366363831574</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001364714005131457</v>
+        <v>1.502787514650549</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.221366363831574</v>
+        <v>0.009224219993206731</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.502787514650549</v>
+        <v>2.821503336480115</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009224219993206731</v>
+        <v>0.954277059074755</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.821503336480115</v>
+        <v>1.830907846572752</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.954277059074755</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.830907846572752</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2484341245655315</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>1.812169403690628e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1304604576407243</v>
+        <v>7.150389753817713e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2764064376210427</v>
+        <v>3.184469899940788e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.150389753817713e-07</v>
+        <v>0.03420101825680544</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.184469899940788e-06</v>
+        <v>0.1395893139579662</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03420101825680544</v>
+        <v>0.02063424027500616</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1395893139579662</v>
+        <v>1.578883826839923</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02063424027500616</v>
+        <v>1.533111276120199</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.476353433225844</v>
+        <v>3.827672450779622</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.533111276120199</v>
+        <v>4.981233658707551e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.827672450779622</v>
+        <v>42416175.48761331</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.981233658707551e-15</v>
+        <v>2.571260546942389e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>42416175.48761331</v>
+        <v>8.961896590907628</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.571260546942389e-06</v>
+        <v>0.000137393939915072</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.961896590907628</v>
+        <v>8.560839848939949</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000137393939915072</v>
+        <v>1.541930781900896</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.560839848939949</v>
+        <v>0.01006932417212138</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.541930781900896</v>
+        <v>2.848134625995757</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01006932417212138</v>
+        <v>0.9508514363718324</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.848134625995757</v>
+        <v>1.846168716006902</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9508514363718324</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.846168716006902</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2582291210309778</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>1.887090130327109e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1778708753078839</v>
+        <v>7.205029658678282e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3389681415767662</v>
+        <v>3.191481909944026e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.205029658678282e-07</v>
+        <v>0.04091855539407389</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.191481909944026e-06</v>
+        <v>0.1178460213752073</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04091855539407389</v>
+        <v>0.01555301839571464</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1178460213752073</v>
+        <v>1.597394390770062</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01555301839571464</v>
+        <v>1.579430092060001</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.496557099748537</v>
+        <v>4.063620464665187</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.579430092060001</v>
+        <v>4.41957154944205e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.063620464665187</v>
+        <v>49362530.39062748</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.41957154944205e-15</v>
+        <v>2.233593537923079e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>49362530.39062748</v>
+        <v>10.76899058893777</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.233593537923079e-06</v>
+        <v>0.0001234495331346034</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.76899058893777</v>
+        <v>7.475122429683547</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001234495331346034</v>
+        <v>1.505494322477804</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.475122429683547</v>
+        <v>0.006898045774319335</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.505494322477804</v>
+        <v>2.981042845015715</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006898045774319335</v>
+        <v>0.9506367783849782</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.981042845015715</v>
+        <v>1.841326108664295</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9506367783849782</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.841326108664295</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2416608855824686</v>
       </c>
     </row>
@@ -4033,72 +3985,66 @@
         <v>1.954690222948931e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1879999904083201</v>
+        <v>7.239545343021441e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4101065933025869</v>
+        <v>3.199769151264405e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.239545343021441e-07</v>
+        <v>0.04493279097352818</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.199769151264405e-06</v>
+        <v>0.1043735166440102</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.04493279097352818</v>
+        <v>0.01290852801170559</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1043735166440102</v>
+        <v>1.630513869298809</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01290852801170559</v>
+        <v>1.723759697371563</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.533676278356411</v>
+        <v>4.090194827901708</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.723759697371563</v>
+        <v>4.362329402404163e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.090194827901708</v>
+        <v>52359707.69156019</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.362329402404163e-15</v>
+        <v>2.1471096890569e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>52359707.69156019</v>
+        <v>11.95949614193229</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.1471096890569e-06</v>
+        <v>0.0001282369465895786</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.95949614193229</v>
+        <v>7.762537934479162</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001282369465895786</v>
+        <v>1.485376602847297</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.762537934479162</v>
+        <v>0.007727173073088342</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.485376602847297</v>
+        <v>2.888209450857544</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007727173073088342</v>
+        <v>0.9525322117045092</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.888209450857544</v>
+        <v>1.802730007313887</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9525322117045092</v>
+        <v>12</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.802730007313887</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2332309906744655</v>
       </c>
     </row>
@@ -4113,72 +4059,66 @@
         <v>2.011787161257686e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1767652751410695</v>
+        <v>7.254414811200122e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.4713539557544397</v>
+        <v>3.208966879759581e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.254414811200122e-07</v>
+        <v>0.04759205202889585</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.208966879759581e-06</v>
+        <v>0.09513548758258744</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04759205202889585</v>
+        <v>0.01131330050558378</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09513548758258744</v>
+        <v>1.618895016985302</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01131330050558378</v>
+        <v>1.722816392624307</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.522747904608501</v>
+        <v>4.103204551905593</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.722816392624307</v>
+        <v>4.334710632709422e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.103204551905593</v>
+        <v>52625101.50021935</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.334710632709422e-15</v>
+        <v>2.124777627509228e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>52625101.50021935</v>
+        <v>12.00455329562987</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.124777627509228e-06</v>
+        <v>0.0001341259728018213</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.00455329562987</v>
+        <v>8.025492938371912</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001341259728018213</v>
+        <v>1.494467170109838</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.025492938371912</v>
+        <v>0.008638857668971881</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.494467170109838</v>
+        <v>2.83601529322865</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008638857668971881</v>
+        <v>0.9513494562954505</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.83601529322865</v>
+        <v>1.819846732310061</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9513494562954505</v>
+        <v>13</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.819846732310061</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2308572044268143</v>
       </c>
     </row>
@@ -4193,72 +4133,66 @@
         <v>2.057641494614656e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1551487596948765</v>
+        <v>7.298989890397598e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.517257814846928</v>
+        <v>3.218898257940092e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.298989890397598e-07</v>
+        <v>0.0499745558503001</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.218898257940092e-06</v>
+        <v>0.08808210997039978</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0499745558503001</v>
+        <v>0.01025425208058178</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08808210997039978</v>
+        <v>1.614631620636699</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01025425208058178</v>
+        <v>1.676318433319926</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.512637172530947</v>
+        <v>3.906189047139206</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.676318433319926</v>
+        <v>4.782995044387352e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.906189047139206</v>
+        <v>47930316.51726535</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.782995044387352e-15</v>
+        <v>2.332804726799244e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>47930316.51726535</v>
+        <v>10.98804741522811</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.332804726799244e-06</v>
+        <v>0.0001274952793809798</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10.98804741522811</v>
+        <v>7.591218277550715</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001274952793809798</v>
+        <v>1.573143428947747</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.591218277550715</v>
+        <v>0.007347118821320925</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.573143428947747</v>
+        <v>2.980260357855728</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007347118821320925</v>
+        <v>0.9502049652176248</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.980260357855728</v>
+        <v>1.834061446100673</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9502049652176248</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.834061446100673</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2292040664082692</v>
       </c>
     </row>
@@ -4273,72 +4207,66 @@
         <v>2.093737883304241e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1331211308246259</v>
+        <v>7.41140630667571e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5457985590687446</v>
+        <v>3.229550773839653e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.41140630667571e-07</v>
+        <v>0.05256815883227373</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.229550773839653e-06</v>
+        <v>0.08243849652729088</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05256815883227373</v>
+        <v>0.009558442122901833</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08243849652729088</v>
+        <v>1.559124909812697</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009558442122901833</v>
+        <v>1.623698017354153</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.46089062193681</v>
+        <v>3.810206676443659</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.623698017354153</v>
+        <v>5.027005720171982e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.810206676443659</v>
+        <v>46285400.60857093</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.027005720171982e-15</v>
+        <v>2.344129466757375e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>46285400.60857093</v>
+        <v>10.76954693637945</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.344129466757375e-06</v>
+        <v>0.0001274746874071551</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10.76954693637945</v>
+        <v>8.509342220627131</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001274746874071551</v>
+        <v>1.695086781307446</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.509342220627131</v>
+        <v>0.009230302533906489</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.695086781307446</v>
+        <v>3.021504726169782</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009230302533906489</v>
+        <v>0.9491756401346692</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.021504726169782</v>
+        <v>1.829786948201149</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9491756401346692</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.829786948201149</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2406135525598985</v>
       </c>
     </row>
@@ -4353,72 +4281,66 @@
         <v>2.120068030133631e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1149803411146513</v>
+        <v>7.453858442112839e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.562936941027611</v>
+        <v>3.240840347883167e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.453858442112839e-07</v>
+        <v>0.05430659922474641</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.240840347883167e-06</v>
+        <v>0.07825073449620984</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05430659922474641</v>
+        <v>0.009071939831542756</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07825073449620984</v>
+        <v>1.542410473852109</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009071939831542756</v>
+        <v>1.600471757526515</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.442946467342021</v>
+        <v>3.543717347139978</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.600471757526515</v>
+        <v>5.811500743425063e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.543717347139978</v>
+        <v>40098998.51979677</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.811500743425063e-15</v>
+        <v>2.691650787578351e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>40098998.51979677</v>
+        <v>9.344484544007416</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.691650787578351e-06</v>
+        <v>0.0001243825299227669</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9.344484544007416</v>
+        <v>8.200123163858146</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001243825299227669</v>
+        <v>1.506850995102913</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.200123163858146</v>
+        <v>0.0083637325525829</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.506850995102913</v>
+        <v>2.922961574315005</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0083637325525829</v>
+        <v>0.947923571038497</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.922961574315005</v>
+        <v>1.86392489377321</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.947923571038497</v>
+        <v>11</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.86392489377321</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2502781657048725</v>
       </c>
     </row>
@@ -4433,72 +4355,66 @@
         <v>2.133437905753452e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.09851118535969143</v>
+        <v>7.453858442112839e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5793795753628035</v>
+        <v>3.252480734823085e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.453858442112839e-07</v>
+        <v>0.05490730084880457</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.252480734823085e-06</v>
+        <v>0.07625461719831098</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05490730084880457</v>
+        <v>0.008829205900579406</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07625461719831098</v>
+        <v>1.539996284678111</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008829205900579406</v>
+        <v>1.5497385971592</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.442894032698561</v>
+        <v>3.563559905563948</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.5497385971592</v>
+        <v>5.746961912384214e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.563559905563948</v>
+        <v>40574827.91598129</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.746961912384214e-15</v>
+        <v>2.647107546389438e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>40574827.91598129</v>
+        <v>9.461319143108438</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.647107546389438e-06</v>
+        <v>0.0001127107655706176</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9.461319143108438</v>
+        <v>6.58366612370691</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001127107655706176</v>
+        <v>1.559046126061676</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.58366612370691</v>
+        <v>0.004885409770119985</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.559046126061676</v>
+        <v>3.175021436612691</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004885409770119985</v>
+        <v>0.9483786449896738</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.175021436612691</v>
+        <v>1.858446741754276</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9483786449896738</v>
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.858446741754276</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2208974054173126</v>
       </c>
     </row>
@@ -4513,72 +4429,66 @@
         <v>2.131631399972608e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.08320925638554838</v>
+        <v>7.453858442112839e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6003633522104446</v>
+        <v>3.264196510176217e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.453858442112839e-07</v>
+        <v>0.0547847873973959</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.264196510176217e-06</v>
+        <v>0.07661621927006954</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0547847873973959</v>
+        <v>0.008870971159043443</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07661621927006954</v>
+        <v>1.547064712139367</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008870971159043443</v>
+        <v>1.689524394359296</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.449599817059327</v>
+        <v>3.785443039190403</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.689524394359296</v>
+        <v>5.092992253114425e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.785443039190403</v>
+        <v>44597764.8853111</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.092992253114425e-15</v>
+        <v>2.404397503588625e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>44597764.8853111</v>
+        <v>10.12976109442419</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.404397503588625e-06</v>
+        <v>0.0001148927189646658</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>10.12976109442419</v>
+        <v>6.7113088927074</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001148927189646658</v>
+        <v>1.352606226896406</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.7113088927074</v>
+        <v>0.005174959594458687</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.352606226896406</v>
+        <v>3.133668368999542</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005174959594458687</v>
+        <v>0.949053069806969</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.133668368999542</v>
+        <v>1.855026683914544</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.949053069806969</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.855026683914544</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2176255639481406</v>
       </c>
     </row>
@@ -4593,72 +4503,66 @@
         <v>2.114464538417075e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.07162354390614166</v>
+        <v>7.453858442112839e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6276370976099033</v>
+        <v>3.275798508140708e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.453858442112839e-07</v>
+        <v>0.05441073626349735</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.275798508140708e-06</v>
+        <v>0.07859452418874172</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05441073626349735</v>
+        <v>0.009137298537291479</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07859452418874172</v>
+        <v>1.557206310821572</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009137298537291479</v>
+        <v>1.622853200262775</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.459246920651137</v>
+        <v>3.777500581878087</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.622853200262775</v>
+        <v>5.114431508023888e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.777500581878087</v>
+        <v>44277221.08801331</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.114431508023888e-15</v>
+        <v>2.439070969705137e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>44277221.08801331</v>
+        <v>10.02670133894481</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.439070969705137e-06</v>
+        <v>0.0001171135778141063</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>10.02670133894481</v>
+        <v>7.196973279606247</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001171135778141063</v>
+        <v>1.292760091117298</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.196973279606247</v>
+        <v>0.006066064577982297</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.292760091117298</v>
+        <v>3.084702016106124</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006066064577982297</v>
+        <v>0.9484915829819366</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.084702016106124</v>
+        <v>1.849100602532916</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9484915829819366</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.849100602532916</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2149283117890363</v>
       </c>
     </row>
@@ -4673,72 +4577,66 @@
         <v>2.083466985191664e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.06808846506862572</v>
+        <v>7.453858442112839e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6649028694531141</v>
+        <v>3.287201862117853e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.453858442112839e-07</v>
+        <v>0.05422188327463231</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.287201862117853e-06</v>
+        <v>0.08116133173090267</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05422188327463231</v>
+        <v>0.009527186871758693</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08116133173090267</v>
+        <v>1.563481135149965</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009527186871758693</v>
+        <v>1.73569541981894</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.466033498487099</v>
+        <v>3.642350683891306</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.73569541981894</v>
+        <v>5.501016308441139e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.642350683891306</v>
+        <v>40873327.15381844</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.501016308441139e-15</v>
+        <v>2.650324000684929e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>40873327.15381844</v>
+        <v>9.190156673652149</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.650324000684929e-06</v>
+        <v>0.0001178730376986428</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>9.190156673652149</v>
+        <v>7.396928957620339</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001178730376986428</v>
+        <v>1.236271738524812</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.396928957620339</v>
+        <v>0.006449371158279772</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.236271738524812</v>
+        <v>3.112954763243108</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006449371158279772</v>
+        <v>0.9483082920064048</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.112954763243108</v>
+        <v>1.857774924862286</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9483082920064048</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.857774924862286</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2067683392384543</v>
       </c>
     </row>
@@ -4753,72 +4651,66 @@
         <v>2.041320332968244e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.0769285118696197</v>
+        <v>7.450205606336286e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7206115010866116</v>
+        <v>3.29840803883274e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.450205606336286e-07</v>
+        <v>0.05446441564801074</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.29840803883274e-06</v>
+        <v>0.08373647371037074</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05446441564801074</v>
+        <v>0.009978459917826961</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08373647371037074</v>
+        <v>1.601555128222421</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009978459917826961</v>
+        <v>1.515988024365464</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.507875220769095</v>
+        <v>3.539135485890345</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.515988024365464</v>
+        <v>5.826557938325839e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.539135485890345</v>
+        <v>38772176.52617016</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.826557938325839e-15</v>
+        <v>2.826044523531745e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>38772176.52617016</v>
+        <v>8.758957762890358</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.826044523531745e-06</v>
+        <v>0.0001296016765530309</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.758957762890358</v>
+        <v>8.399421943834518</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001296016765530309</v>
+        <v>1.251458768899335</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.399421943834518</v>
+        <v>0.009143435734478561</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.251458768899335</v>
+        <v>3.048677312932379</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009143435734478561</v>
+        <v>0.9494786477875314</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.048677312932379</v>
+        <v>1.835142258201767</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9494786477875314</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.835142258201767</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1917325585085706</v>
       </c>
     </row>
@@ -5195,7 +5087,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.295306498140308</v>
+        <v>1.280241193069919</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.177574206667559</v>
@@ -5284,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.304886236878349</v>
+        <v>1.287543724871225</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.081667097747849</v>
@@ -5373,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.331221994210813</v>
+        <v>1.314493662001931</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.961572440113164</v>
@@ -5462,7 +5354,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.341350807362383</v>
+        <v>1.322759804828377</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.1066191347611</v>
@@ -5551,7 +5443,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.343234994749707</v>
+        <v>1.320867932548671</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.053274623162416</v>
@@ -5640,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.342464926671356</v>
+        <v>1.322512288813679</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.960976035548272</v>
@@ -5729,7 +5621,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.328237509457362</v>
+        <v>1.304002857832297</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.187606849904071</v>
@@ -5818,7 +5710,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.325112134263668</v>
+        <v>1.299739549956655</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.149760038932309</v>
@@ -5907,7 +5799,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.300378058811478</v>
+        <v>1.282317137218886</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.127043038069966</v>
@@ -5996,7 +5888,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.315309620557773</v>
+        <v>1.289780419530591</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.125830440232775</v>
@@ -6085,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.301651844742756</v>
+        <v>1.282653114435577</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.098333991459936</v>
@@ -6174,7 +6066,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.301123243530155</v>
+        <v>1.281926433833411</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.159344097436224</v>
@@ -6263,7 +6155,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.310464989955561</v>
+        <v>1.2954763460207</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.236862006837175</v>
@@ -6352,7 +6244,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.323813495266593</v>
+        <v>1.307980922994456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.234838299020612</v>
@@ -6441,7 +6333,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.325769901545287</v>
+        <v>1.310450464586522</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.149858738691502</v>
@@ -6530,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.327792688717149</v>
+        <v>1.31218004884988</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.268422073619741</v>
@@ -6619,7 +6511,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.326050704806707</v>
+        <v>1.309118587015822</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.256817586319958</v>
@@ -6708,7 +6600,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.339167751565349</v>
+        <v>1.317423357198801</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.236908198617811</v>
@@ -6797,7 +6689,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.337834658619773</v>
+        <v>1.317818674000242</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.144945450786202</v>
@@ -6886,7 +6778,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.358000680729689</v>
+        <v>1.335811037215356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.12164278170343</v>
@@ -6975,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.359933097574286</v>
+        <v>1.334463047627249</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.013852173344687</v>
@@ -7064,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.375634746711345</v>
+        <v>1.355910854271805</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.984354701525514</v>
@@ -7153,7 +7045,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.39464485403563</v>
+        <v>1.371011115551607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.983798939985192</v>
@@ -7242,7 +7134,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.380007886487196</v>
+        <v>1.360185901328179</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.060145357296522</v>
@@ -7331,7 +7223,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.410211915279302</v>
+        <v>1.383880327533414</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.158386242042105</v>
@@ -7420,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.413533264282746</v>
+        <v>1.387560979610416</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.421712902308559</v>
@@ -7509,7 +7401,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.421456828229587</v>
+        <v>1.395457045449532</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.297759524722709</v>
@@ -7598,7 +7490,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.415637130471728</v>
+        <v>1.389799899922602</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.164100166668419</v>
@@ -7687,7 +7579,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.395002719997054</v>
+        <v>1.370669459111091</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.290897495205371</v>
@@ -7776,7 +7668,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.39501362905052</v>
+        <v>1.366778668425439</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.206648403486946</v>
@@ -7865,7 +7757,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.386586241782868</v>
+        <v>1.358892889102407</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.263438892904196</v>
@@ -7954,7 +7846,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.380347306703737</v>
+        <v>1.360651414166855</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.132427187076892</v>
@@ -8043,7 +7935,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.39627497588374</v>
+        <v>1.37507112266763</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.105495600325004</v>
@@ -8132,7 +8024,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.365618238263994</v>
+        <v>1.344552386012388</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.276887725388267</v>
@@ -8221,7 +8113,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.364781324827833</v>
+        <v>1.342252632746426</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.216336974389257</v>
@@ -8310,7 +8202,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.368340223896953</v>
+        <v>1.347133559255793</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.179273680026971</v>
@@ -8399,7 +8291,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.34901927475149</v>
+        <v>1.32872592211787</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.215179688282381</v>
@@ -8488,7 +8380,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.360001017234998</v>
+        <v>1.341070110737665</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.137828586402745</v>
@@ -8577,7 +8469,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.391850162672208</v>
+        <v>1.368008923059298</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.99526659486708</v>
@@ -8666,7 +8558,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.390307372549671</v>
+        <v>1.368511988462197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.204481375974496</v>
@@ -8755,7 +8647,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.368601337630474</v>
+        <v>1.351108623961528</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.220687199089682</v>
@@ -8844,7 +8736,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.370991578690911</v>
+        <v>1.350824947068753</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.190097747285127</v>
@@ -8933,7 +8825,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.387840904271248</v>
+        <v>1.362744271368182</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.175158941479594</v>
@@ -9022,7 +8914,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.38814620204633</v>
+        <v>1.361407761822402</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.219228310442145</v>
@@ -9111,7 +9003,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.378203960389667</v>
+        <v>1.354442485010432</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.227037925125765</v>
@@ -9200,7 +9092,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.383072382567653</v>
+        <v>1.364245764837946</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.310668782884692</v>
@@ -9289,7 +9181,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.395208517520693</v>
+        <v>1.375985963170164</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.306239116637748</v>
@@ -9378,7 +9270,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.374817240004382</v>
+        <v>1.353339761658818</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.190691048623323</v>
@@ -9467,7 +9359,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.39837205939229</v>
+        <v>1.379661868803235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.159953382334673</v>
@@ -9556,7 +9448,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.392733217586118</v>
+        <v>1.371403163410213</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.260747415389252</v>
@@ -9645,7 +9537,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.348817999359828</v>
+        <v>1.332471775432825</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.032755544133074</v>
@@ -9734,7 +9626,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.333163108701993</v>
+        <v>1.313066973900012</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.770567495928488</v>
@@ -9823,7 +9715,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.305718943311686</v>
+        <v>1.288664686942569</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.812173702719586</v>
@@ -9912,7 +9804,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.312214246432308</v>
+        <v>1.295674550445416</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.835509647132558</v>
@@ -10001,7 +9893,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.316706082222921</v>
+        <v>1.298392648783446</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.883107660605311</v>
@@ -10090,7 +9982,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.333592706931329</v>
+        <v>1.30718235811793</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.874047727002138</v>
@@ -10179,7 +10071,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.32093714906129</v>
+        <v>1.297459240376996</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.893073598719633</v>
@@ -10268,7 +10160,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.320363118323089</v>
+        <v>1.297337292692587</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.91198771115217</v>
@@ -10357,7 +10249,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.325887452651173</v>
+        <v>1.305693634078426</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.943901501709381</v>
@@ -10446,7 +10338,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.336643872883192</v>
+        <v>1.313169814809861</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.948190500957671</v>
@@ -10535,7 +10427,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.344988769443612</v>
+        <v>1.318925887777496</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.918446770588827</v>
@@ -10821,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457286044807222</v>
+        <v>1.422123041819681</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.494184775144617</v>
@@ -10910,7 +10802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468015239426633</v>
+        <v>1.426771118307959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.476180571906043</v>
@@ -10999,7 +10891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482434416213622</v>
+        <v>1.441625864740628</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.285663621652485</v>
@@ -11088,7 +10980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.50091329136861</v>
+        <v>1.456153614651603</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.618283917959372</v>
@@ -11177,7 +11069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.492895945028228</v>
+        <v>1.449067100269933</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.800696862107226</v>
@@ -11266,7 +11158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.487904765937202</v>
+        <v>1.438861546712107</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.865661686652124</v>
@@ -11355,7 +11247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.479392777110712</v>
+        <v>1.432694119542706</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.612987020580185</v>
@@ -11444,7 +11336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476531997428632</v>
+        <v>1.434934275044798</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.910338353041401</v>
@@ -11533,7 +11425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456916455702466</v>
+        <v>1.413279579114876</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.89901845050778</v>
@@ -11622,7 +11514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.446623135106947</v>
+        <v>1.394875876437087</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.465371535666393</v>
@@ -11711,7 +11603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.44508072426476</v>
+        <v>1.401857966622337</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.364389232662415</v>
@@ -11800,7 +11692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.434701650418429</v>
+        <v>1.392277416446748</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.515736956480634</v>
@@ -11889,7 +11781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.436114478512707</v>
+        <v>1.391186004053702</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.165162100698405</v>
@@ -11978,7 +11870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.418249975269241</v>
+        <v>1.384105706421497</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.130111588382814</v>
@@ -12067,7 +11959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.422996586425129</v>
+        <v>1.388804530126339</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.087254957080674</v>
@@ -12156,7 +12048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.430955452205444</v>
+        <v>1.397662471771399</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.151286754223208</v>
@@ -12245,7 +12137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.424017427377991</v>
+        <v>1.387482039046471</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.161803232442919</v>
@@ -12334,7 +12226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.425297579172503</v>
+        <v>1.382923497320643</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.199520212144948</v>
@@ -12423,7 +12315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.440411221109628</v>
+        <v>1.397962404989591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.151336006427534</v>
@@ -12512,7 +12404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.443015323183754</v>
+        <v>1.401532133903431</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.148126968774388</v>
@@ -12601,7 +12493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440479566650099</v>
+        <v>1.401030840844379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.236563656042156</v>
@@ -12690,7 +12582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.445957210896436</v>
+        <v>1.408284202523834</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.104171139005128</v>
@@ -12779,7 +12671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.448933023854858</v>
+        <v>1.406771146844691</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.290047114697842</v>
@@ -12868,7 +12760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450543463633672</v>
+        <v>1.412156195153313</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.099008194216702</v>
@@ -12957,7 +12849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.472100027568135</v>
+        <v>1.429939431640193</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.046134516705288</v>
@@ -13046,7 +12938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470293524019346</v>
+        <v>1.425928721550124</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.192887779324883</v>
@@ -13135,7 +13027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.484552910537107</v>
+        <v>1.439156017023874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.115667904745584</v>
@@ -13224,7 +13116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511314322473533</v>
+        <v>1.459612211621278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.405931643314525</v>
@@ -13313,7 +13205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.51814013313885</v>
+        <v>1.460345174245986</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.122450174144549</v>
@@ -13402,7 +13294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510914839936807</v>
+        <v>1.452562165003664</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.982320752103496</v>
@@ -13491,7 +13383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.515504373906045</v>
+        <v>1.451761773600585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.657852038332767</v>
@@ -13580,7 +13472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506498417813593</v>
+        <v>1.455798344346483</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.771511455971255</v>
@@ -13669,7 +13561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503458188323232</v>
+        <v>1.454584082777974</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.71265732929409</v>
@@ -13758,7 +13650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502627866112249</v>
+        <v>1.451325876509175</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.683479337254154</v>
@@ -13847,7 +13739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.493626234683902</v>
+        <v>1.44256683783745</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.704878940177402</v>
@@ -13936,7 +13828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.497501539484385</v>
+        <v>1.44960532231456</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.89080550097083</v>
@@ -14025,7 +13917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.499776243021962</v>
+        <v>1.453294280061673</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.906283811272349</v>
@@ -14114,7 +14006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517757484293553</v>
+        <v>1.469291601064107</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.80931290025608</v>
@@ -14203,7 +14095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.519447138938187</v>
+        <v>1.468322523624755</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.383299181459996</v>
@@ -14292,7 +14184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508183061848763</v>
+        <v>1.463094833395851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.043762902261116</v>
@@ -14381,7 +14273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.510946278913249</v>
+        <v>1.470298888747204</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.011029084824432</v>
@@ -14470,7 +14362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517350649495456</v>
+        <v>1.477054845392414</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.686227771886289</v>
@@ -14559,7 +14451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.517394958660957</v>
+        <v>1.475541572200063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.035772985117065</v>
@@ -14648,7 +14540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.525861438361899</v>
+        <v>1.486802226786975</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.905029244985923</v>
@@ -14737,7 +14629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.512464254391702</v>
+        <v>1.474414176608835</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.782245407341993</v>
@@ -14826,7 +14718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.507122036779061</v>
+        <v>1.478074927070452</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.710538992980287</v>
@@ -14915,7 +14807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506963522919919</v>
+        <v>1.477932033017969</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.659476213466744</v>
@@ -15004,7 +14896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462648108614993</v>
+        <v>1.437656304044275</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.354543239512078</v>
@@ -15093,7 +14985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457834076685788</v>
+        <v>1.437561449325163</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.399815157150489</v>
@@ -15182,7 +15074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.446368104011607</v>
+        <v>1.429489449969745</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.243918708612506</v>
@@ -15271,7 +15163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.393124196027161</v>
+        <v>1.383486213237034</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.053010642383108</v>
@@ -15360,7 +15252,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.361009348406546</v>
+        <v>1.340274048182893</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.725841662357754</v>
@@ -15449,7 +15341,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.344384883790076</v>
+        <v>1.326781352885246</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.750353198903428</v>
@@ -15538,7 +15430,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.337148853588871</v>
+        <v>1.316278222739072</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.755007015500275</v>
@@ -15627,7 +15519,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.343664972141543</v>
+        <v>1.318097491966015</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.776743175085461</v>
@@ -15716,7 +15608,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.344945397872824</v>
+        <v>1.318499759232449</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.794293258378896</v>
@@ -15805,7 +15697,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.348390703998214</v>
+        <v>1.324770207734383</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.80198104190037</v>
@@ -15894,7 +15786,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.351803815320982</v>
+        <v>1.329470629759393</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.797500824123971</v>
@@ -15983,7 +15875,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.349894724348847</v>
+        <v>1.328615014330705</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.8094247825006</v>
@@ -16072,7 +15964,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.341256864829306</v>
+        <v>1.30650351579685</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.815974806653163</v>
@@ -16161,7 +16053,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.311117677242116</v>
+        <v>1.287077173131735</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.84667427886093</v>
@@ -16447,7 +16339,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474706288029806</v>
+        <v>1.4268103233667</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.081134057909134</v>
@@ -16536,7 +16428,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.47972966930958</v>
+        <v>1.424193156174815</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.704812573517096</v>
@@ -16625,7 +16517,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.49515808144541</v>
+        <v>1.439111010323533</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.787878843031133</v>
@@ -16714,7 +16606,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501155353007539</v>
+        <v>1.442422974528742</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.825923161490246</v>
@@ -16803,7 +16695,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.507103204885845</v>
+        <v>1.450245354820042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.104662864939709</v>
@@ -16892,7 +16784,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51204350807017</v>
+        <v>1.448638589133041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.094562993544222</v>
@@ -16981,7 +16873,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508123182043809</v>
+        <v>1.444632509017717</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.601437760832055</v>
@@ -17070,7 +16962,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.506534252256208</v>
+        <v>1.447178701061649</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.921445498912807</v>
@@ -17159,7 +17051,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.498569412508528</v>
+        <v>1.440847801539582</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.910860063379781</v>
@@ -17248,7 +17140,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.498623891618759</v>
+        <v>1.43416775573295</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.924638692890738</v>
@@ -17337,7 +17229,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507727925985024</v>
+        <v>1.442006882394558</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.770541032450091</v>
@@ -17426,7 +17318,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503919816093198</v>
+        <v>1.437056626766689</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.03518017902738</v>
@@ -17515,7 +17407,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.511370130730741</v>
+        <v>1.447553118040627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.885165044473252</v>
@@ -17604,7 +17496,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515051752117985</v>
+        <v>1.453043958808018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.02368145759144</v>
@@ -17693,7 +17585,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517588820254712</v>
+        <v>1.460877558968528</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.930190161292662</v>
@@ -17782,7 +17674,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51510876083633</v>
+        <v>1.460737953478719</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.975004011652843</v>
@@ -17871,7 +17763,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.518314647780659</v>
+        <v>1.460268092981091</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.023002498187711</v>
@@ -17960,7 +17852,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520481319776897</v>
+        <v>1.456347760190537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.981465685138196</v>
@@ -18049,7 +17941,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.528755297287001</v>
+        <v>1.465788694169968</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.922138357881173</v>
@@ -18138,7 +18030,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526615039137157</v>
+        <v>1.464726878413182</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.986510639106272</v>
@@ -18227,7 +18119,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.512343570172634</v>
+        <v>1.455595528437251</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.760996091574468</v>
@@ -18316,7 +18208,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.509770769594075</v>
+        <v>1.458756707473255</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.981948565861706</v>
@@ -18405,7 +18297,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506552487990878</v>
+        <v>1.453302957704098</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.385445308506854</v>
@@ -18494,7 +18386,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506844817651612</v>
+        <v>1.456900553195815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.969841177376668</v>
@@ -18583,7 +18475,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509131022515499</v>
+        <v>1.459805066862457</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.978244753399748</v>
@@ -18672,7 +18564,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.506424673870917</v>
+        <v>1.456235522121126</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.629889699995567</v>
@@ -18761,7 +18653,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.524710012258044</v>
+        <v>1.476797376957274</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.884334077088599</v>
@@ -18850,7 +18742,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531541822692615</v>
+        <v>1.483756473405363</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.843080773992977</v>
@@ -18939,7 +18831,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538168359470016</v>
+        <v>1.487310155696816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.783064163669621</v>
@@ -19028,7 +18920,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.538744805310239</v>
+        <v>1.481262643726759</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.864081445285328</v>
@@ -19117,7 +19009,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54284428587316</v>
+        <v>1.485424362350366</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.624626626566762</v>
@@ -19206,7 +19098,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528530425210491</v>
+        <v>1.485016724460231</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.798955774733227</v>
@@ -19295,7 +19187,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.522405058577449</v>
+        <v>1.48433495265936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.834748072984901</v>
@@ -19384,7 +19276,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509460579357931</v>
+        <v>1.469964289225419</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.723948126967922</v>
@@ -19473,7 +19365,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.505803403844637</v>
+        <v>1.469476763309347</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.533506848639747</v>
@@ -19562,7 +19454,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.519985708241968</v>
+        <v>1.483532872271197</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.885182772354598</v>
@@ -19651,7 +19543,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517452804157622</v>
+        <v>1.48085317999612</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.961542743481845</v>
@@ -19740,7 +19632,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533964380271189</v>
+        <v>1.497567001480018</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.873818274806319</v>
@@ -19829,7 +19721,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543044882427813</v>
+        <v>1.500411920028974</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.453379085778029</v>
@@ -19918,7 +19810,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542272527056042</v>
+        <v>1.501827358451409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.98457332777885</v>
@@ -20007,7 +19899,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544149679996544</v>
+        <v>1.506626905093756</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.86633558880449</v>
@@ -20096,7 +19988,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538769807227342</v>
+        <v>1.496342715090254</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.815301054551184</v>
@@ -20185,7 +20077,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535807443201923</v>
+        <v>1.491886953093596</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.75678362648609</v>
@@ -20274,7 +20166,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.543522860657796</v>
+        <v>1.500352577534401</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.911281186917021</v>
@@ -20363,7 +20255,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526272210566791</v>
+        <v>1.487418280460572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.892189200396856</v>
@@ -20452,7 +20344,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528082076803205</v>
+        <v>1.486322905551326</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.889733289678129</v>
@@ -20541,7 +20433,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.51030859485046</v>
+        <v>1.470559687054348</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.613336458123895</v>
@@ -20630,7 +20522,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477372772040186</v>
+        <v>1.437458844350152</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.600832968189026</v>
@@ -20719,7 +20611,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.487470379262515</v>
+        <v>1.450271700722749</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.500588982528872</v>
@@ -20808,7 +20700,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.48341149769134</v>
+        <v>1.440021953766487</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.449696908789664</v>
@@ -20897,7 +20789,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.414472929564814</v>
+        <v>1.381055167517709</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.000199048643419</v>
@@ -20986,7 +20878,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.342166807832444</v>
+        <v>1.315907483330807</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.70714475979995</v>
@@ -21075,7 +20967,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.320627602714435</v>
+        <v>1.294294913266</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.704551071182796</v>
@@ -21164,7 +21056,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.314086974192748</v>
+        <v>1.287876209854867</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.713633912942942</v>
@@ -21253,7 +21145,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.322338021027694</v>
+        <v>1.294254776880909</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.718626210028355</v>
@@ -21342,7 +21234,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.32586579917283</v>
+        <v>1.295130455313176</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.728637879937605</v>
@@ -21431,7 +21323,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.329344959100593</v>
+        <v>1.300674992188885</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.72866795831749</v>
@@ -21520,7 +21412,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.325028691642467</v>
+        <v>1.296986204246133</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.728715649416966</v>
@@ -21609,7 +21501,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.322572096199016</v>
+        <v>1.294775406930512</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.72998099488274</v>
@@ -21698,7 +21590,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.330341617565741</v>
+        <v>1.296189500265106</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.748152122712052</v>
@@ -21787,7 +21679,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.335220463573846</v>
+        <v>1.30440750092755</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.720528152115148</v>
@@ -22073,7 +21965,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495268822448197</v>
+        <v>1.432679075061455</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.851678768208536</v>
@@ -22162,7 +22054,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494463336204613</v>
+        <v>1.430853744190915</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.77868381337029</v>
@@ -22251,7 +22143,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.49949088506201</v>
+        <v>1.438799653414242</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.767234245463001</v>
@@ -22340,7 +22232,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496100405687171</v>
+        <v>1.441028672607592</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.884035807717968</v>
@@ -22429,7 +22321,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504652026621331</v>
+        <v>1.453382500945454</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.784146703636062</v>
@@ -22518,7 +22410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.515938107202616</v>
+        <v>1.45648044761247</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.765814185834313</v>
@@ -22607,7 +22499,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.511203909883636</v>
+        <v>1.450881028910538</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.773476734542128</v>
@@ -22696,7 +22588,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.510597938908394</v>
+        <v>1.451281976943542</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.905311482773629</v>
@@ -22785,7 +22677,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511467534622885</v>
+        <v>1.450919713450624</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.009490561560324</v>
@@ -22874,7 +22766,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510478713240543</v>
+        <v>1.44466400799993</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.890068933248864</v>
@@ -22963,7 +22855,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522682415688533</v>
+        <v>1.457982590670893</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.600971535757312</v>
@@ -23052,7 +22944,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520022640469414</v>
+        <v>1.457604392500192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.990170959886376</v>
@@ -23141,7 +23033,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.540024803756895</v>
+        <v>1.479801078951325</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.8240060517371</v>
@@ -23230,7 +23122,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552404779275977</v>
+        <v>1.490746332745995</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.223938585126848</v>
@@ -23319,7 +23211,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.553222325399598</v>
+        <v>1.496702594385331</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.23190630642008</v>
@@ -23408,7 +23300,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543635697347535</v>
+        <v>1.487717314002851</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.973579487494705</v>
@@ -23497,7 +23389,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544920597333453</v>
+        <v>1.486179254043839</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.895851684421006</v>
@@ -23586,7 +23478,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541838238591382</v>
+        <v>1.472885173824425</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.299597945920843</v>
@@ -23675,7 +23567,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543129760419725</v>
+        <v>1.472785571577394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.432272196049446</v>
@@ -23764,7 +23656,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.541032670588461</v>
+        <v>1.470574918900064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.240326379107997</v>
@@ -23853,7 +23745,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525240482102947</v>
+        <v>1.46453668482293</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.764609882783904</v>
@@ -23942,7 +23834,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52279335472877</v>
+        <v>1.466153953034512</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.773906435630005</v>
@@ -24031,7 +23923,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507921358555265</v>
+        <v>1.450806160790791</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.688032647258327</v>
@@ -24120,7 +24012,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.510479297362913</v>
+        <v>1.457147951782642</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.89258784077766</v>
@@ -24209,7 +24101,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.515935576303745</v>
+        <v>1.462297236897877</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.913017749538035</v>
@@ -24298,7 +24190,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.510200329143112</v>
+        <v>1.45541965839482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.660266963659877</v>
@@ -24387,7 +24279,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.527744978066976</v>
+        <v>1.473154380310102</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.976405079026156</v>
@@ -24476,7 +24368,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522946622613398</v>
+        <v>1.471899202952527</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.83063466634197</v>
@@ -24565,7 +24457,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534857151057911</v>
+        <v>1.482341955857222</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.766267829287351</v>
@@ -24654,7 +24546,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536726417622009</v>
+        <v>1.473336783428492</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.766613125003853</v>
@@ -24743,7 +24635,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540752434882992</v>
+        <v>1.479646720841348</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.711297174207253</v>
@@ -24832,7 +24724,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.536502297183695</v>
+        <v>1.484773967063144</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.891721714597898</v>
@@ -24921,7 +24813,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526613576262146</v>
+        <v>1.481448786465603</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679327583757713</v>
@@ -25010,7 +24902,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.518887554914103</v>
+        <v>1.470089354361833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.737243405991557</v>
@@ -25099,7 +24991,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.516270947936317</v>
+        <v>1.466862958302642</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.500145158135948</v>
@@ -25188,7 +25080,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.526216106006135</v>
+        <v>1.476588081394708</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.264869251226206</v>
@@ -25277,7 +25169,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524849669511396</v>
+        <v>1.47549966665292</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.053061446137745</v>
@@ -25366,7 +25258,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539454497330117</v>
+        <v>1.493199371126281</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.280966195165286</v>
@@ -25455,7 +25347,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547673631622637</v>
+        <v>1.494142650721151</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.81989857224443</v>
@@ -25544,7 +25436,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.547260970063123</v>
+        <v>1.498766432551847</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.329758676566829</v>
@@ -25633,7 +25525,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554627950779679</v>
+        <v>1.506230014770968</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.122762793313797</v>
@@ -25722,7 +25614,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.555141456894563</v>
+        <v>1.505457857959736</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.241928035355023</v>
@@ -25811,7 +25703,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5475435974956</v>
+        <v>1.499040462369309</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.342620010292606</v>
@@ -25900,7 +25792,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549468976916199</v>
+        <v>1.502821724690539</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.455618820727678</v>
@@ -25989,7 +25881,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535936939940658</v>
+        <v>1.498457847038057</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.315447259156069</v>
@@ -26078,7 +25970,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534436900213036</v>
+        <v>1.496955250709071</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.775155302917006</v>
@@ -26167,7 +26059,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504567751137378</v>
+        <v>1.47258135081989</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.446546307781274</v>
@@ -26256,7 +26148,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.486087405206996</v>
+        <v>1.454792578658801</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.519877537381868</v>
@@ -26345,7 +26237,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.499008749788366</v>
+        <v>1.472518373574093</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.568227871830945</v>
@@ -26434,7 +26326,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.488329280661174</v>
+        <v>1.45980297426611</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.33571810286985</v>
@@ -26523,7 +26415,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.408000034669652</v>
+        <v>1.388846910191168</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.942197593380775</v>
@@ -26612,7 +26504,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.315527371961039</v>
+        <v>1.298526261194855</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.639239949596919</v>
@@ -26701,7 +26593,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.296736171975095</v>
+        <v>1.279311853572065</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.646343483220443</v>
@@ -26790,7 +26682,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.288822126755021</v>
+        <v>1.27013470285627</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.650820671698221</v>
@@ -26879,7 +26771,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.291502675710689</v>
+        <v>1.268968863353197</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.654303022742979</v>
@@ -26968,7 +26860,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.290575952776747</v>
+        <v>1.265031306931289</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.661497948464956</v>
@@ -27057,7 +26949,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.29087354147842</v>
+        <v>1.265873690163</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.652506711258964</v>
@@ -27146,7 +27038,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.289527692629196</v>
+        <v>1.265348074260772</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.653257132514947</v>
@@ -27235,7 +27127,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.288335705235329</v>
+        <v>1.264709448593992</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.660272061345832</v>
@@ -27324,7 +27216,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.28525478517184</v>
+        <v>1.25597691658692</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.672882402971549</v>
@@ -27413,7 +27305,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.286431381166366</v>
+        <v>1.258832912322989</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.68457179917659</v>
@@ -27699,7 +27591,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.427347043900019</v>
+        <v>1.380509622085289</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.000858435636129</v>
@@ -27788,7 +27680,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460985055769689</v>
+        <v>1.412916170088291</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.325299198721603</v>
@@ -27877,7 +27769,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482258009553713</v>
+        <v>1.428224588147557</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.284060215255407</v>
@@ -27966,7 +27858,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504677738092342</v>
+        <v>1.449561786956703</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.806037608133695</v>
@@ -28055,7 +27947,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511197095631426</v>
+        <v>1.45530456365485</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.90408389220764</v>
@@ -28144,7 +28036,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508903200713257</v>
+        <v>1.445740458474929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.123983777559954</v>
@@ -28233,7 +28125,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.507125092802177</v>
+        <v>1.445913719916437</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.009730750945833</v>
@@ -28322,7 +28214,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513550982816199</v>
+        <v>1.453252661795845</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.141525567132884</v>
@@ -28411,7 +28303,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.503192901395685</v>
+        <v>1.439337130146975</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.684651332906522</v>
@@ -28500,7 +28392,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.502985201294923</v>
+        <v>1.437130964934414</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.593450983464194</v>
@@ -28589,7 +28481,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.504251139925889</v>
+        <v>1.439045209624654</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.835500852662006</v>
@@ -28678,7 +28570,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.489352085472662</v>
+        <v>1.427395517193805</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.865228503670689</v>
@@ -28767,7 +28659,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.494858057051193</v>
+        <v>1.437157712645664</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.715484339718821</v>
@@ -28856,7 +28748,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.497819565238876</v>
+        <v>1.440583260575322</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.718072724739936</v>
@@ -28945,7 +28837,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496348650352455</v>
+        <v>1.439675882549639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.672412854969218</v>
@@ -29034,7 +28926,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.495036678353111</v>
+        <v>1.442730153989943</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.894804853662924</v>
@@ -29123,7 +29015,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.499639348965892</v>
+        <v>1.449378983421653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.760398385159999</v>
@@ -29212,7 +29104,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.50635013570769</v>
+        <v>1.451789232024679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.700357318819012</v>
@@ -29301,7 +29193,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.502096269570246</v>
+        <v>1.446145231430854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.87432478463559</v>
@@ -29390,7 +29282,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495777476647712</v>
+        <v>1.43644407404964</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.883048746598652</v>
@@ -29479,7 +29371,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.494576778484515</v>
+        <v>1.443389297405643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.937289370650999</v>
@@ -29568,7 +29460,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.497741445225937</v>
+        <v>1.446844435571604</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.757746234769547</v>
@@ -29657,7 +29549,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.491888401708585</v>
+        <v>1.441488691707042</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.50691852954551</v>
@@ -29746,7 +29638,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.496664342839491</v>
+        <v>1.45091141786498</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.821737750379301</v>
@@ -29835,7 +29727,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.497251010827523</v>
+        <v>1.451059975303811</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.849371980023399</v>
@@ -29924,7 +29816,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.496745555272358</v>
+        <v>1.450572214885429</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.803376909745167</v>
@@ -30013,7 +29905,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.512774778501045</v>
+        <v>1.466096336240519</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.795263963119595</v>
@@ -30102,7 +29994,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.514861970076092</v>
+        <v>1.465357407169867</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.06423996690177</v>
@@ -30191,7 +30083,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518680706390528</v>
+        <v>1.472526014165586</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.116521219664993</v>
@@ -30280,7 +30172,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52620666244797</v>
+        <v>1.476285743905406</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.194651053163031</v>
@@ -30369,7 +30261,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.509366196307104</v>
+        <v>1.459278914461879</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.890411426142574</v>
@@ -30458,7 +30350,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504616349263685</v>
+        <v>1.45862698531164</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.036476283311922</v>
@@ -30547,7 +30439,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.507922444976767</v>
+        <v>1.462239812392935</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.973825925576289</v>
@@ -30636,7 +30528,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.49748471553347</v>
+        <v>1.449376893832687</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.047956337933908</v>
@@ -30725,7 +30617,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.497140447562078</v>
+        <v>1.447050229658617</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.931536121527004</v>
@@ -30814,7 +30706,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.488370273158111</v>
+        <v>1.442150834932551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.96677214836072</v>
@@ -30903,7 +30795,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.486481439824502</v>
+        <v>1.443840613267442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.703925503244602</v>
@@ -30992,7 +30884,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.487858785063001</v>
+        <v>1.449882465737564</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.815993109899506</v>
@@ -31081,7 +30973,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.497668841494877</v>
+        <v>1.457446546880935</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.488404615396041</v>
@@ -31170,7 +31062,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.502518397571661</v>
+        <v>1.463911476622648</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.803363366404568</v>
@@ -31259,7 +31151,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.500060265225593</v>
+        <v>1.46728408337041</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.922491880770361</v>
@@ -31348,7 +31240,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.505606770518878</v>
+        <v>1.47569606325665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.774302945884958</v>
@@ -31437,7 +31329,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510415461587682</v>
+        <v>1.481314564317506</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.851740809683125</v>
@@ -31526,7 +31418,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.520601083115008</v>
+        <v>1.49069565295609</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.86513459906695</v>
@@ -31615,7 +31507,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517841422140544</v>
+        <v>1.491085431546686</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.75260365465036</v>
@@ -31704,7 +31596,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528152197865211</v>
+        <v>1.502418773959258</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.4130450747974</v>
@@ -31793,7 +31685,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.492955526304027</v>
+        <v>1.470956682532961</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.261965132321231</v>
@@ -31882,7 +31774,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.386523580926795</v>
+        <v>1.346753832434604</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.55796502958344</v>
@@ -31971,7 +31863,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.380306713740737</v>
+        <v>1.341137043755429</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.56329888373913</v>
@@ -32060,7 +31952,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.323103883638957</v>
+        <v>1.29216637918809</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.601799256959506</v>
@@ -32149,7 +32041,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.248327713406503</v>
+        <v>1.218331757619417</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.546025351418232</v>
@@ -32238,7 +32130,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.191086443885475</v>
+        <v>1.166741480762377</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.476713517799999</v>
@@ -32327,7 +32219,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.188611624925669</v>
+        <v>1.162181001006405</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.481500872040885</v>
@@ -32416,7 +32308,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.187563349528519</v>
+        <v>1.159684652888662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.486878359549966</v>
@@ -32505,7 +32397,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.186480426740135</v>
+        <v>1.157727566413194</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.494537618967981</v>
@@ -32594,7 +32486,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.187312511910356</v>
+        <v>1.156472442877584</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.496177460538907</v>
@@ -32683,7 +32575,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.185873790678838</v>
+        <v>1.154755609998963</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.498182409838909</v>
@@ -32772,7 +32664,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.186870837503589</v>
+        <v>1.156867300428548</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.500627201938707</v>
@@ -32861,7 +32753,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.188662262418438</v>
+        <v>1.158697351640762</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.500806403936106</v>
@@ -32950,7 +32842,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.189303176137203</v>
+        <v>1.159139798961692</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.50600982868822</v>
@@ -33039,7 +32931,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.189510615975421</v>
+        <v>1.159748615988632</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.499834123189388</v>
@@ -33325,7 +33217,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.230403307452012</v>
+        <v>1.211552611500749</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.865022180844543</v>
@@ -33414,7 +33306,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.23539542752182</v>
+        <v>1.216137425078496</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.859045288521145</v>
@@ -33503,7 +33395,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.254572909260788</v>
+        <v>1.235217615534067</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.761231263415032</v>
@@ -33592,7 +33484,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.263763666966802</v>
+        <v>1.245590287012146</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.802558362311494</v>
@@ -33681,7 +33573,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.259006363690798</v>
+        <v>1.24245933924709</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.833055801723821</v>
@@ -33770,7 +33662,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.293415653146271</v>
+        <v>1.270835084274154</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.969666648115482</v>
@@ -33859,7 +33751,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.276458808196917</v>
+        <v>1.257312942675225</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.158604661468016</v>
@@ -33948,7 +33840,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.276483113093746</v>
+        <v>1.253329480732796</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.133504004880212</v>
@@ -34037,7 +33929,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.257302325216796</v>
+        <v>1.244818100311455</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.079223443874971</v>
@@ -34126,7 +34018,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.276520758842802</v>
+        <v>1.249343601993203</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.031347937765684</v>
@@ -34215,7 +34107,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.250580917332823</v>
+        <v>1.239262857387929</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.015757874660997</v>
@@ -34304,7 +34196,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.246779294947298</v>
+        <v>1.235114553127316</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.060749713821935</v>
@@ -34393,7 +34285,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.253829623975062</v>
+        <v>1.246503991298145</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.032686079244528</v>
@@ -34482,7 +34374,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.261975066591755</v>
+        <v>1.258042092456221</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.004475121507321</v>
@@ -34571,7 +34463,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.263168304908306</v>
+        <v>1.259657055125937</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.065656654533828</v>
@@ -34660,7 +34552,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.266959386373789</v>
+        <v>1.263605660367852</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.044535747871052</v>
@@ -34749,7 +34641,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.265710697585903</v>
+        <v>1.263139956911359</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.014598849731339</v>
@@ -34838,7 +34730,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.281409269974491</v>
+        <v>1.27237647846083</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.087764785492755</v>
@@ -34927,7 +34819,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.274498054688608</v>
+        <v>1.267431276196675</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.107168680759028</v>
@@ -35016,7 +34908,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.296862961318117</v>
+        <v>1.283576892350055</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.065258437672375</v>
@@ -35105,7 +34997,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.296439821896409</v>
+        <v>1.284594652393868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.096744793689425</v>
@@ -35194,7 +35086,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.316145835618167</v>
+        <v>1.302079356940891</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.006357332930533</v>
@@ -35283,7 +35175,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.32973820126894</v>
+        <v>1.311245821620074</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.800550608812198</v>
@@ -35372,7 +35264,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.310785731999184</v>
+        <v>1.294280743932548</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.045881963443337</v>
@@ -35461,7 +35353,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.341967263879276</v>
+        <v>1.322341913284371</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.054958686688648</v>
@@ -35550,7 +35442,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.351281952991453</v>
+        <v>1.332422129220613</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.211409232023384</v>
@@ -35639,7 +35531,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.358911108296765</v>
+        <v>1.340448594481722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.133121026295933</v>
@@ -35728,7 +35620,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.378630937071087</v>
+        <v>1.357021606678098</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.92313236466542</v>
@@ -35817,7 +35709,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.34816399853735</v>
+        <v>1.328604986440548</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.141305923072984</v>
@@ -35906,7 +35798,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.348266080028417</v>
+        <v>1.325528930897428</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.127584258789187</v>
@@ -35995,7 +35887,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.333526518449681</v>
+        <v>1.311004881061599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.127098120056721</v>
@@ -36084,7 +35976,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.322844008982222</v>
+        <v>1.307087598724578</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.073339799086475</v>
@@ -36173,7 +36065,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.336691459916699</v>
+        <v>1.319186869781615</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.019686884029322</v>
@@ -36262,7 +36154,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.311289993235651</v>
+        <v>1.294532343878031</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.115487241956298</v>
@@ -36351,7 +36243,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.305298787712976</v>
+        <v>1.290973790850137</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.133909614088449</v>
@@ -36440,7 +36332,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.307164435601862</v>
+        <v>1.297228381975027</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.076634244821431</v>
@@ -36529,7 +36421,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.287702129837964</v>
+        <v>1.276486432456375</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.197295350113168</v>
@@ -36618,7 +36510,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.301039674379694</v>
+        <v>1.292398554130674</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.081897395121919</v>
@@ -36707,7 +36599,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.333811233357672</v>
+        <v>1.321523348922667</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.941737713286651</v>
@@ -36796,7 +36688,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.340300459249109</v>
+        <v>1.332264875268566</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.129837228312947</v>
@@ -36885,7 +36777,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.31643405397889</v>
+        <v>1.31011909247517</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.153812388110913</v>
@@ -36974,7 +36866,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.322321933125155</v>
+        <v>1.317056230494917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.155357222460079</v>
@@ -37063,7 +36955,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.338734449100821</v>
+        <v>1.331878591283831</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.086984185180119</v>
@@ -37152,7 +37044,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.336344481625287</v>
+        <v>1.32830860328009</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.182936092361258</v>
@@ -37241,7 +37133,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.331791683671238</v>
+        <v>1.328371159041398</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.226150688278253</v>
@@ -37330,7 +37222,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.345907697799092</v>
+        <v>1.344480166421239</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.808267292912969</v>
@@ -37419,7 +37311,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.325538868863506</v>
+        <v>1.320150190390139</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.812461007727645</v>
@@ -37508,7 +37400,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.301494847556832</v>
+        <v>1.295875631037317</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.842890777514816</v>
@@ -37597,7 +37489,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.316997066178802</v>
+        <v>1.314365913274488</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.841655744250057</v>
@@ -37686,7 +37578,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.301384562732386</v>
+        <v>1.299104411975052</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.870183610972191</v>
@@ -37775,7 +37667,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.2836429059433</v>
+        <v>1.281724278305745</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.864991177641154</v>
@@ -37864,7 +37756,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.274863036338273</v>
+        <v>1.266782385481942</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.856833310164852</v>
@@ -37953,7 +37845,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.263342149019401</v>
+        <v>1.249945284417987</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.936917938973741</v>
@@ -38042,7 +37934,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.256073937337258</v>
+        <v>1.246451294945643</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.971732799514503</v>
@@ -38131,7 +38023,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.273691828206456</v>
+        <v>1.26568111603156</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.031590839453316</v>
@@ -38220,7 +38112,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.296017468541154</v>
+        <v>1.289253163542236</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.020996255397919</v>
@@ -38309,7 +38201,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.297128052218553</v>
+        <v>1.289957250172904</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.044170535275655</v>
@@ -38398,7 +38290,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.308066278841909</v>
+        <v>1.30453592123892</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.079730851715642</v>
@@ -38487,7 +38379,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.315971391950518</v>
+        <v>1.312769828455068</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.116282133607073</v>
@@ -38576,7 +38468,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.317268545622523</v>
+        <v>1.312311246835444</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.144564429598924</v>
@@ -38665,7 +38557,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.318562893844304</v>
+        <v>1.309671489815</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.879141832638767</v>
